--- a/biology/Zoologie/Hepatus_pudibundus/Hepatus_pudibundus.xlsx
+++ b/biology/Zoologie/Hepatus_pudibundus/Hepatus_pudibundus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hepatus pudibundus est une espèce de crabes de la famille des Hepatidae qui se rencontre au large du Brésil[2] et de la Guyane et plus largement dans l'Ouest de l'océan Atlantique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hepatus pudibundus est une espèce de crabes de la famille des Hepatidae qui se rencontre au large du Brésil et de la Guyane et plus largement dans l'Ouest de l'océan Atlantique.
 </t>
         </is>
       </c>
